--- a/DesignerConfigs/Datas/Task.xlsx
+++ b/DesignerConfigs/Datas/Task.xlsx
@@ -778,13 +778,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,7 +1033,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/DesignerConfigs/Datas/Task.xlsx
+++ b/DesignerConfigs/Datas/Task.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>任务奖励</t>
-  </si>
-  <si>
-    <t>UiTaskLinkTimes</t>
-  </si>
-  <si>
-    <t>UiTaskLevel</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1128,8 +1122,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="D6" s="3">
+        <v>10071</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1145,8 +1139,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="D7" s="3">
+        <v>10071</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -1162,8 +1156,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+      <c r="D8" s="3">
+        <v>10071</v>
       </c>
       <c r="E8">
         <v>300</v>
@@ -1179,8 +1173,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
+      <c r="D9" s="3">
+        <v>10071</v>
       </c>
       <c r="E9">
         <v>400</v>
@@ -1196,8 +1190,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
+      <c r="D10" s="3">
+        <v>10071</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1213,8 +1207,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
+      <c r="D11" s="3">
+        <v>10071</v>
       </c>
       <c r="E11">
         <v>600</v>
@@ -1230,8 +1224,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
+      <c r="D12" s="3">
+        <v>10071</v>
       </c>
       <c r="E12">
         <v>700</v>
@@ -1247,8 +1241,8 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
+      <c r="D13" s="3">
+        <v>10071</v>
       </c>
       <c r="E13">
         <v>800</v>
@@ -1264,8 +1258,8 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
+      <c r="D14" s="3">
+        <v>10071</v>
       </c>
       <c r="E14">
         <v>900</v>
@@ -1281,8 +1275,8 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
+      <c r="D15" s="3">
+        <v>10071</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -1298,8 +1292,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
+      <c r="D16" s="3">
+        <v>10071</v>
       </c>
       <c r="E16">
         <v>1100</v>
@@ -1315,8 +1309,8 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
+      <c r="D17" s="3">
+        <v>10071</v>
       </c>
       <c r="E17">
         <v>1200</v>
@@ -1332,8 +1326,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
+      <c r="D18" s="3">
+        <v>10071</v>
       </c>
       <c r="E18">
         <v>1300</v>
@@ -1349,8 +1343,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
+      <c r="D19" s="3">
+        <v>10071</v>
       </c>
       <c r="E19">
         <v>1400</v>
@@ -1366,8 +1360,8 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
+      <c r="D20" s="3">
+        <v>10071</v>
       </c>
       <c r="E20">
         <v>1500</v>
@@ -1383,8 +1377,8 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
+      <c r="D21" s="3">
+        <v>10071</v>
       </c>
       <c r="E21">
         <v>1600</v>
@@ -1400,8 +1394,8 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
+      <c r="D22" s="3">
+        <v>10071</v>
       </c>
       <c r="E22">
         <v>1700</v>
@@ -1417,8 +1411,8 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
+      <c r="D23" s="3">
+        <v>10071</v>
       </c>
       <c r="E23">
         <v>1800</v>
@@ -1434,8 +1428,8 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
+      <c r="D24" s="3">
+        <v>10071</v>
       </c>
       <c r="E24">
         <v>1900</v>
@@ -1451,8 +1445,8 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
+      <c r="D25" s="3">
+        <v>10071</v>
       </c>
       <c r="E25">
         <v>2000</v>
@@ -1468,8 +1462,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>10073</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1485,8 +1479,8 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>10073</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1502,8 +1496,8 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>16</v>
+      <c r="D28" s="3">
+        <v>10073</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1519,8 +1513,8 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
+      <c r="D29" s="3">
+        <v>10073</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1536,8 +1530,8 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
+      <c r="D30" s="3">
+        <v>10073</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -1553,8 +1547,8 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>16</v>
+      <c r="D31" s="3">
+        <v>10073</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -1570,8 +1564,8 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
+      <c r="D32" s="3">
+        <v>10073</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -1587,8 +1581,8 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>10073</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1604,8 +1598,8 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>16</v>
+      <c r="D34" s="3">
+        <v>10073</v>
       </c>
       <c r="E34">
         <v>9</v>
@@ -1621,8 +1615,8 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>10073</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -1638,8 +1632,8 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>16</v>
+      <c r="D36" s="3">
+        <v>10073</v>
       </c>
       <c r="E36">
         <v>11</v>
@@ -1655,8 +1649,8 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>16</v>
+      <c r="D37" s="3">
+        <v>10073</v>
       </c>
       <c r="E37">
         <v>12</v>
@@ -1672,8 +1666,8 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>16</v>
+      <c r="D38" s="3">
+        <v>10073</v>
       </c>
       <c r="E38">
         <v>13</v>
@@ -1689,8 +1683,8 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>16</v>
+      <c r="D39" s="3">
+        <v>10073</v>
       </c>
       <c r="E39">
         <v>14</v>
@@ -1706,8 +1700,8 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>16</v>
+      <c r="D40" s="3">
+        <v>10073</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -1723,8 +1717,8 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>16</v>
+      <c r="D41" s="3">
+        <v>10073</v>
       </c>
       <c r="E41">
         <v>16</v>
@@ -1740,8 +1734,8 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>16</v>
+      <c r="D42" s="3">
+        <v>10073</v>
       </c>
       <c r="E42">
         <v>17</v>
@@ -1757,8 +1751,8 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>16</v>
+      <c r="D43" s="3">
+        <v>10073</v>
       </c>
       <c r="E43">
         <v>18</v>
@@ -1774,8 +1768,8 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
+      <c r="D44" s="3">
+        <v>10073</v>
       </c>
       <c r="E44">
         <v>19</v>
@@ -1791,8 +1785,8 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>16</v>
+      <c r="D45" s="3">
+        <v>10073</v>
       </c>
       <c r="E45">
         <v>20</v>
